--- a/reports_analytics/views/purchase_report.xlsx
+++ b/reports_analytics/views/purchase_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Odoo 14.0.20201202\server\odoo\addons\reports_analytics\views\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F98FC29-3F42-4DE1-A94A-0C9CD54DCED8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841D36B9-9457-487C-B91C-ED31E19DE37A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>تقرير المشتريات</t>
   </si>
   <si>
-    <t>المقاييس</t>
-  </si>
-  <si>
     <t>التسلسل</t>
   </si>
   <si>
-    <t>رقم القاتورة</t>
-  </si>
-  <si>
     <t xml:space="preserve">رقم الطلب </t>
   </si>
   <si>
@@ -46,15 +40,9 @@
     <t>الى</t>
   </si>
   <si>
-    <t>اسم الشركة</t>
-  </si>
-  <si>
     <t xml:space="preserve">التاريخ </t>
   </si>
   <si>
-    <t xml:space="preserve">الكمية </t>
-  </si>
-  <si>
     <t xml:space="preserve">المبلغ قبل الضريبة </t>
   </si>
   <si>
@@ -71,9 +59,6 @@
   </si>
   <si>
     <t>الاجمالي</t>
-  </si>
-  <si>
-    <t>المبلغ بعد الضريبة</t>
   </si>
 </sst>
 </file>
@@ -105,7 +90,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,12 +100,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFED7D31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,18 +131,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -481,132 +454,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:M13"/>
+  <dimension ref="B3:J13"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="F3" s="5" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="3:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="M5" s="4" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="3:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="M6" s="3" t="s">
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="3:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="M7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="M10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="M11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="3:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="M12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F3:J5"/>
+    <mergeCell ref="E3:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
